--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.36847154215877</v>
+        <v>121.9019427240923</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5413971888657</v>
+        <v>166.7916159691881</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1325340185962</v>
+        <v>150.8732582346382</v>
       </c>
       <c r="AD2" t="n">
-        <v>87368.47154215878</v>
+        <v>121901.9427240923</v>
       </c>
       <c r="AE2" t="n">
-        <v>119541.3971888657</v>
+        <v>166791.6159691881</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840471743227592e-06</v>
+        <v>5.536671446023717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>108132.5340185962</v>
+        <v>150873.2582346382</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.61715148325142</v>
+        <v>109.0652818106133</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0944785357391</v>
+        <v>149.2279301938638</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.35072479481431</v>
+        <v>134.9858259789175</v>
       </c>
       <c r="AD3" t="n">
-        <v>74617.15148325142</v>
+        <v>109065.2818106133</v>
       </c>
       <c r="AE3" t="n">
-        <v>102094.4785357391</v>
+        <v>149227.9301938638</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448121231427259e-06</v>
+        <v>6.412698089479388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>92350.7247948143</v>
+        <v>134985.8259789175</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.46951225183089</v>
+        <v>99.45495649285266</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.5242279090407</v>
+        <v>136.0786591164801</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.93033668406694</v>
+        <v>123.0915028780373</v>
       </c>
       <c r="AD4" t="n">
-        <v>73469.51225183089</v>
+        <v>99454.95649285265</v>
       </c>
       <c r="AE4" t="n">
-        <v>100524.2279090407</v>
+        <v>136078.6591164801</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.654600214741292e-06</v>
+        <v>6.71037149200729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>90930.33668406695</v>
+        <v>123091.5028780373</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.76202476162472</v>
+        <v>98.57687680205429</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.55621231279589</v>
+        <v>134.8772317453884</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.054707137709</v>
+        <v>122.0047380490283</v>
       </c>
       <c r="AD5" t="n">
-        <v>72762.02476162472</v>
+        <v>98576.87680205429</v>
       </c>
       <c r="AE5" t="n">
-        <v>99556.21231279589</v>
+        <v>134877.2317453884</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.766265990931021e-06</v>
+        <v>6.871356067826133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>90054.707137709</v>
+        <v>122004.7380490283</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.30927714773657</v>
+        <v>98.12412918816614</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.93674305365937</v>
+        <v>134.2577624862519</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.4943591552337</v>
+        <v>121.444390066553</v>
       </c>
       <c r="AD6" t="n">
-        <v>72309.27714773656</v>
+        <v>98124.12918816613</v>
       </c>
       <c r="AE6" t="n">
-        <v>98936.74305365937</v>
+        <v>134257.7624862519</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.82760747500849e-06</v>
+        <v>6.959789902535983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>89494.3591552337</v>
+        <v>121444.390066553</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.71015934484093</v>
+        <v>97.52501138527049</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.11700364452592</v>
+        <v>133.4380230771185</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.75285452479621</v>
+        <v>120.7028854361155</v>
       </c>
       <c r="AD7" t="n">
-        <v>71710.15934484093</v>
+        <v>97525.01138527048</v>
       </c>
       <c r="AE7" t="n">
-        <v>98117.00364452592</v>
+        <v>133438.0230771185</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.896815047417049e-06</v>
+        <v>7.059563996871867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>88752.8545247962</v>
+        <v>120702.8854361155</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.59606159749764</v>
+        <v>97.41091363792721</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.96089007297357</v>
+        <v>133.2819095055661</v>
       </c>
       <c r="AC8" t="n">
-        <v>88.61164021340599</v>
+        <v>120.5616711247253</v>
       </c>
       <c r="AD8" t="n">
-        <v>71596.06159749764</v>
+        <v>97410.91363792721</v>
       </c>
       <c r="AE8" t="n">
-        <v>97960.89007297358</v>
+        <v>133281.9095055661</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.878632012372776e-06</v>
+        <v>7.033350162306047e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>88611.64021340599</v>
+        <v>120561.6711247253</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>71.31138379245614</v>
+        <v>97.1262358328857</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5713813410176</v>
+        <v>132.8924007736101</v>
       </c>
       <c r="AC9" t="n">
-        <v>88.25930564814881</v>
+        <v>120.2093365594681</v>
       </c>
       <c r="AD9" t="n">
-        <v>71311.38379245614</v>
+        <v>97126.23583288569</v>
       </c>
       <c r="AE9" t="n">
-        <v>97571.38134101759</v>
+        <v>132892.4007736101</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.87550425024706e-06</v>
+        <v>7.028840978953262e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>88259.30564814882</v>
+        <v>120209.3365594681</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.85290863613639</v>
+        <v>107.1052688096962</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.9947606913876</v>
+        <v>146.5461539363395</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3061379166641</v>
+        <v>132.5599946835138</v>
       </c>
       <c r="AD2" t="n">
-        <v>81852.90863613639</v>
+        <v>107105.2688096962</v>
       </c>
       <c r="AE2" t="n">
-        <v>111994.7606913876</v>
+        <v>146546.1539363395</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.401610606613752e-06</v>
+        <v>6.443792344100596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>101306.1379166641</v>
+        <v>132559.9946835138</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.49615695031618</v>
+        <v>95.66317626930436</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.45595201033228</v>
+        <v>130.8905781330866</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.25033132726887</v>
+        <v>118.3985650621798</v>
       </c>
       <c r="AD3" t="n">
-        <v>70496.15695031617</v>
+        <v>95663.17626930436</v>
       </c>
       <c r="AE3" t="n">
-        <v>96455.95201033229</v>
+        <v>130890.5781330866</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.983781850609284e-06</v>
+        <v>7.29606914463747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>87250.33132726887</v>
+        <v>118398.5650621798</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.83696308871836</v>
+        <v>95.00398240770653</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.55401388731393</v>
+        <v>129.9886400100682</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.43447291283297</v>
+        <v>117.5827066477439</v>
       </c>
       <c r="AD4" t="n">
-        <v>69836.96308871836</v>
+        <v>95003.98240770653</v>
       </c>
       <c r="AE4" t="n">
-        <v>95554.01388731392</v>
+        <v>129988.6400100682</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.11576642214307e-06</v>
+        <v>7.489289592241556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>86434.47291283298</v>
+        <v>117582.7066477439</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.12696685891353</v>
+        <v>94.29398617790173</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.58256572287246</v>
+        <v>129.0171918456268</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.55573839776943</v>
+        <v>116.7039721326803</v>
       </c>
       <c r="AD5" t="n">
-        <v>69126.96685891354</v>
+        <v>94293.98617790172</v>
       </c>
       <c r="AE5" t="n">
-        <v>94582.56572287246</v>
+        <v>129017.1918456268</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.234059948660453e-06</v>
+        <v>7.662466864984406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>85555.73839776943</v>
+        <v>116703.9721326803</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.05120826240119</v>
+        <v>85.30347892740993</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.16471241691958</v>
+        <v>116.7159831923231</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.3230275827662</v>
+        <v>105.5767735683893</v>
       </c>
       <c r="AD6" t="n">
-        <v>60051.20826240119</v>
+        <v>85303.47892740993</v>
       </c>
       <c r="AE6" t="n">
-        <v>82164.71241691959</v>
+        <v>116715.9831923231</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.305630067582176e-06</v>
+        <v>7.76724282669288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74323.0275827662</v>
+        <v>105576.7735683893</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.07622212562043</v>
+        <v>93.57523463648884</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.19893748810991</v>
+        <v>128.0337642775861</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.35398626119731</v>
+        <v>115.8144015114839</v>
       </c>
       <c r="AD7" t="n">
-        <v>60076.22212562044</v>
+        <v>93575.23463648885</v>
       </c>
       <c r="AE7" t="n">
-        <v>82198.93748810991</v>
+        <v>128033.7642775861</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.288196320665347e-06</v>
+        <v>7.741720477045944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>74353.98626119731</v>
+        <v>115814.4015114839</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.36405523297792</v>
+        <v>77.66592143569714</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.3832987425825</v>
+        <v>106.2659400869108</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.28426110822269</v>
+        <v>96.12406791022663</v>
       </c>
       <c r="AD2" t="n">
-        <v>54364.05523297792</v>
+        <v>77665.92143569715</v>
       </c>
       <c r="AE2" t="n">
-        <v>74383.2987425825</v>
+        <v>106265.9400869108</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114737686453808e-06</v>
+        <v>9.460253960841603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>67284.26110822269</v>
+        <v>96124.06791022663</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.40991627659845</v>
+        <v>76.54119027872548</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.07780372882483</v>
+        <v>104.7270332983063</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.10336070630387</v>
+        <v>94.73203222565679</v>
       </c>
       <c r="AD3" t="n">
-        <v>53409.91627659845</v>
+        <v>76541.19027872548</v>
       </c>
       <c r="AE3" t="n">
-        <v>73077.80372882483</v>
+        <v>104727.0332983063</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.441648462947218e-06</v>
+        <v>9.966025283627023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>66103.36070630388</v>
+        <v>94732.03222565679</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.49027917050377</v>
+        <v>90.46942435971663</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.97493330514082</v>
+        <v>123.7842576382293</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.29241335464107</v>
+        <v>111.970461821566</v>
       </c>
       <c r="AD2" t="n">
-        <v>66490.27917050377</v>
+        <v>90469.42435971662</v>
       </c>
       <c r="AE2" t="n">
-        <v>90974.93330514082</v>
+        <v>123784.2576382293</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.336721871575564e-06</v>
+        <v>8.065355575750931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>82292.41335464107</v>
+        <v>111970.461821566</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.49871228119349</v>
+        <v>80.5631088164269</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.30403069037206</v>
+        <v>110.2299996761098</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.92624249818918</v>
+        <v>99.70980321582633</v>
       </c>
       <c r="AD3" t="n">
-        <v>56498.71228119349</v>
+        <v>80563.1088164269</v>
       </c>
       <c r="AE3" t="n">
-        <v>77304.03069037206</v>
+        <v>110229.9996761098</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.851244764743131e-06</v>
+        <v>8.842950920819081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>69926.24249818918</v>
+        <v>99709.80321582632</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.90105241652062</v>
+        <v>79.96544895175404</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.4862860966347</v>
+        <v>109.4122550823725</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.18654230076612</v>
+        <v>98.97010301840325</v>
       </c>
       <c r="AD4" t="n">
-        <v>55901.05241652062</v>
+        <v>79965.44895175404</v>
       </c>
       <c r="AE4" t="n">
-        <v>76486.28609663471</v>
+        <v>109412.2550823725</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.961774005056869e-06</v>
+        <v>9.009993095041424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>69186.54230076612</v>
+        <v>98970.10301840326</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.48480025972009</v>
+        <v>73.99064297055104</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.44377506440858</v>
+        <v>101.237261949058</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.72072004073623</v>
+        <v>91.57531975605475</v>
       </c>
       <c r="AD2" t="n">
-        <v>51484.80025972009</v>
+        <v>73990.64297055104</v>
       </c>
       <c r="AE2" t="n">
-        <v>70443.77506440859</v>
+        <v>101237.261949058</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.77613141095549e-06</v>
+        <v>1.070959431599795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63720.72004073623</v>
+        <v>91575.31975605476</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.59242049200083</v>
+        <v>74.09826320283179</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.59102581408459</v>
+        <v>101.3845126987339</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.85391738553092</v>
+        <v>91.70851710084945</v>
       </c>
       <c r="AD3" t="n">
-        <v>51592.42049200083</v>
+        <v>74098.26320283179</v>
       </c>
       <c r="AE3" t="n">
-        <v>70591.02581408458</v>
+        <v>101384.5126987339</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.717841687237995e-06</v>
+        <v>1.061746810770206e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>63853.91738553092</v>
+        <v>91708.51710084945</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.2214187346042</v>
+        <v>116.9475571437729</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8672165825148</v>
+        <v>160.0128070461326</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.9998892455511</v>
+        <v>144.741409321079</v>
       </c>
       <c r="AD2" t="n">
-        <v>83221.4187346042</v>
+        <v>116947.5571437729</v>
       </c>
       <c r="AE2" t="n">
-        <v>113867.2165825148</v>
+        <v>160012.8070461326</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248908374938674e-06</v>
+        <v>6.194425262651512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>102999.8892455512</v>
+        <v>144741.409321079</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.74112226092124</v>
+        <v>97.07841887222132</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.15936847229445</v>
+        <v>132.8269754984937</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.79117611286196</v>
+        <v>120.1501553807839</v>
       </c>
       <c r="AD3" t="n">
-        <v>71741.12226092124</v>
+        <v>97078.41887222131</v>
       </c>
       <c r="AE3" t="n">
-        <v>98159.36847229445</v>
+        <v>132826.9754984937</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.800053952980833e-06</v>
+        <v>6.997932844071715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88791.17611286195</v>
+        <v>120150.1553807839</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.49035975985186</v>
+        <v>95.82765637115193</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.448020038585</v>
+        <v>131.1156270647843</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.24315637177259</v>
+        <v>118.6021356396945</v>
       </c>
       <c r="AD4" t="n">
-        <v>70490.35975985185</v>
+        <v>95827.65637115193</v>
       </c>
       <c r="AE4" t="n">
-        <v>96448.020038585</v>
+        <v>131115.6270647843</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039564898214593e-06</v>
+        <v>7.347112567171522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>87243.15637177258</v>
+        <v>118602.1356396945</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.31454223746285</v>
+        <v>95.65183884876291</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.20745874793083</v>
+        <v>130.8750657741301</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.02555391306846</v>
+        <v>118.3845331809904</v>
       </c>
       <c r="AD5" t="n">
-        <v>70314.54223746284</v>
+        <v>95651.83884876291</v>
       </c>
       <c r="AE5" t="n">
-        <v>96207.45874793082</v>
+        <v>130875.0657741301</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.047533441002368e-06</v>
+        <v>7.358729796444401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>87025.55391306846</v>
+        <v>118384.5331809904</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.75485864108614</v>
+        <v>95.09215525238621</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.44167495987097</v>
+        <v>130.1092819860703</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.3328554549565</v>
+        <v>117.6918347228784</v>
       </c>
       <c r="AD6" t="n">
-        <v>69754.85864108615</v>
+        <v>95092.1552523862</v>
       </c>
       <c r="AE6" t="n">
-        <v>95441.67495987097</v>
+        <v>130109.2819860703</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.116498426931402e-06</v>
+        <v>7.459272903845105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>86332.8554549565</v>
+        <v>117691.8347228784</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.22416429368249</v>
+        <v>94.56146090498255</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.71555554117143</v>
+        <v>129.3831625673707</v>
       </c>
       <c r="AC7" t="n">
-        <v>85.6760358544624</v>
+        <v>117.0350151223843</v>
       </c>
       <c r="AD7" t="n">
-        <v>69224.16429368249</v>
+        <v>94561.46090498255</v>
       </c>
       <c r="AE7" t="n">
-        <v>94715.55554117143</v>
+        <v>129383.1625673707</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.192977294047707e-06</v>
+        <v>7.570770395605221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>85676.0358544624</v>
+        <v>117035.0151223843</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.52371564882795</v>
+        <v>72.65920939136683</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.12877669972602</v>
+        <v>99.41553578731509</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.53122327436675</v>
+        <v>89.92745658237931</v>
       </c>
       <c r="AD2" t="n">
-        <v>50523.71564882794</v>
+        <v>72659.20939136684</v>
       </c>
       <c r="AE2" t="n">
-        <v>69128.77669972602</v>
+        <v>99415.53578731509</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.833449359782204e-06</v>
+        <v>1.094879103575824e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62531.22327436676</v>
+        <v>89927.45658237931</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.49049536211957</v>
+        <v>94.27547468260958</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.07996145870436</v>
+        <v>128.9918636010985</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.00566338267302</v>
+        <v>116.6810611802615</v>
       </c>
       <c r="AD2" t="n">
-        <v>69490.49536211957</v>
+        <v>94275.47468260958</v>
       </c>
       <c r="AE2" t="n">
-        <v>95079.96145870436</v>
+        <v>128991.8636010985</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915860492215951e-06</v>
+        <v>7.299282009904395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86005.66338267302</v>
+        <v>116681.0611802615</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.7660116317971</v>
+        <v>92.38039875169491</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.72044674002552</v>
+        <v>126.3989371075728</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.87133743714445</v>
+        <v>114.3355999520819</v>
       </c>
       <c r="AD3" t="n">
-        <v>67766.0116317971</v>
+        <v>92380.39875169491</v>
       </c>
       <c r="AE3" t="n">
-        <v>92720.44674002552</v>
+        <v>126398.9371075728</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.361705225312786e-06</v>
+        <v>7.961291528819235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>83871.33743714445</v>
+        <v>114335.5999520819</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.5922494949395</v>
+        <v>83.29188796085789</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.16850066656131</v>
+        <v>113.9636356867579</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.51733148016072</v>
+        <v>103.0871062458104</v>
       </c>
       <c r="AD4" t="n">
-        <v>58592.2494949395</v>
+        <v>83291.88796085789</v>
       </c>
       <c r="AE4" t="n">
-        <v>80168.50066656132</v>
+        <v>113963.6356867579</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541849286043447e-06</v>
+        <v>8.228777211898436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>72517.33148016072</v>
+        <v>103087.1062458104</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.13839582562998</v>
+        <v>82.83803429154837</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.54751805360158</v>
+        <v>113.3426530737981</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.95561457622709</v>
+        <v>102.5253893418767</v>
       </c>
       <c r="AD5" t="n">
-        <v>58138.39582562999</v>
+        <v>82838.03429154836</v>
       </c>
       <c r="AE5" t="n">
-        <v>79547.51805360158</v>
+        <v>113342.6530737981</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.588197633666872e-06</v>
+        <v>8.29759724056527e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>71955.61457622709</v>
+        <v>102525.3893418767</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.13154731212886</v>
+        <v>82.83118577804723</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.53814761529425</v>
+        <v>113.3332826354908</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.94713843940031</v>
+        <v>102.51691320505</v>
       </c>
       <c r="AD6" t="n">
-        <v>58131.54731212886</v>
+        <v>82831.18577804723</v>
       </c>
       <c r="AE6" t="n">
-        <v>79538.14761529425</v>
+        <v>113333.2826354908</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.579838511390184e-06</v>
+        <v>8.285185254718756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>71947.13843940031</v>
+        <v>102516.91320505</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.96996560729428</v>
+        <v>105.318649239309</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.47248203465782</v>
+        <v>144.1016222200444</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.07440655629108</v>
+        <v>130.3487656432993</v>
       </c>
       <c r="AD2" t="n">
-        <v>71969.96560729429</v>
+        <v>105318.649239309</v>
       </c>
       <c r="AE2" t="n">
-        <v>98472.48203465782</v>
+        <v>144101.6222200444</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573805139397149e-06</v>
+        <v>6.725517368287809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89074.40655629108</v>
+        <v>130348.7656432994</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.59403306237728</v>
+        <v>94.58430008129646</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.22162630795783</v>
+        <v>129.4144121359967</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.13380793754165</v>
+        <v>117.0632822760397</v>
       </c>
       <c r="AD3" t="n">
-        <v>69594.03306237728</v>
+        <v>94584.30008129646</v>
       </c>
       <c r="AE3" t="n">
-        <v>95221.62630795783</v>
+        <v>129414.4121359967</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.09925024662464e-06</v>
+        <v>7.498154174412464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86133.80793754164</v>
+        <v>117063.2822760397</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.91997973201985</v>
+        <v>93.91024675093905</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.29935680422912</v>
+        <v>128.492142632268</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.29955854083511</v>
+        <v>116.2290328793332</v>
       </c>
       <c r="AD4" t="n">
-        <v>68919.97973201986</v>
+        <v>93910.24675093906</v>
       </c>
       <c r="AE4" t="n">
-        <v>94299.35680422912</v>
+        <v>128492.142632268</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.233365990731417e-06</v>
+        <v>7.695363661668812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>85299.5585408351</v>
+        <v>116229.0328793332</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.82209544506935</v>
+        <v>84.8976138100091</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.85123015250221</v>
+        <v>116.1606606331903</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.03946362568959</v>
+        <v>105.0744502148999</v>
       </c>
       <c r="AD5" t="n">
-        <v>59822.09544506935</v>
+        <v>84897.6138100091</v>
       </c>
       <c r="AE5" t="n">
-        <v>81851.2301525022</v>
+        <v>116160.6606331903</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.353392512720105e-06</v>
+        <v>7.871855758224658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>74039.46362568959</v>
+        <v>105074.4502148999</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.33678210485041</v>
+        <v>84.41230046979017</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.18720302990148</v>
+        <v>115.4966335105896</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.43881031970176</v>
+        <v>104.4737969089121</v>
       </c>
       <c r="AD6" t="n">
-        <v>59336.78210485041</v>
+        <v>84412.30046979016</v>
       </c>
       <c r="AE6" t="n">
-        <v>81187.20302990149</v>
+        <v>115496.6335105896</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.408506234534976e-06</v>
+        <v>7.952897315964863e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73438.81031970176</v>
+        <v>104473.7969089121</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.93004078134032</v>
+        <v>120.2580216146566</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.5732727628284</v>
+        <v>164.5423305825785</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3522446254993</v>
+        <v>148.838641488434</v>
       </c>
       <c r="AD2" t="n">
-        <v>85930.04078134033</v>
+        <v>120258.0216146566</v>
       </c>
       <c r="AE2" t="n">
-        <v>117573.2727628284</v>
+        <v>164542.3305825785</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971731716873173e-06</v>
+        <v>5.746192251823244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>106352.2446254993</v>
+        <v>148838.641488434</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.80203263137734</v>
+        <v>108.044672610122</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9791969620997</v>
+        <v>147.8314876596521</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.34188412925525</v>
+        <v>133.7226579602512</v>
       </c>
       <c r="AD3" t="n">
-        <v>73802.03263137734</v>
+        <v>108044.672610122</v>
       </c>
       <c r="AE3" t="n">
-        <v>100979.1969620997</v>
+        <v>147831.4876596521</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.535770888290408e-06</v>
+        <v>6.562228617712055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>91341.88412925525</v>
+        <v>133722.6579602511</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.57763243413723</v>
+        <v>98.23836671310384</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.30391859551226</v>
+        <v>134.4140673076755</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.8264919787064</v>
+        <v>121.5857773751952</v>
       </c>
       <c r="AD4" t="n">
-        <v>72577.63243413722</v>
+        <v>98238.36671310384</v>
       </c>
       <c r="AE4" t="n">
-        <v>99303.91859551225</v>
+        <v>134414.0673076755</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.753147015797347e-06</v>
+        <v>6.876722422594497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>89826.4919787064</v>
+        <v>121585.7773751952</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.91731344355399</v>
+        <v>97.57804772252062</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.40044102137885</v>
+        <v>133.5105897335421</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.00924103620926</v>
+        <v>120.7685264326981</v>
       </c>
       <c r="AD5" t="n">
-        <v>71917.313443554</v>
+        <v>97578.04772252063</v>
       </c>
       <c r="AE5" t="n">
-        <v>98400.44102137885</v>
+        <v>133510.5897335421</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.866481879548935e-06</v>
+        <v>7.040692187516968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>89009.24103620926</v>
+        <v>120768.5264326981</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.41617123462954</v>
+        <v>97.07690551359617</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.71475614229486</v>
+        <v>132.8249048544581</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.38899695962006</v>
+        <v>120.1482823561089</v>
       </c>
       <c r="AD6" t="n">
-        <v>71416.17123462954</v>
+        <v>97076.90551359617</v>
       </c>
       <c r="AE6" t="n">
-        <v>97714.75614229486</v>
+        <v>132824.9048544581</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.934525148382148e-06</v>
+        <v>7.139135318128507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>88388.99695962005</v>
+        <v>120148.2823561088</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.97952745618544</v>
+        <v>96.64026173515205</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.11732086126396</v>
+        <v>132.2274695734272</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.84858006330487</v>
+        <v>119.6078654597937</v>
       </c>
       <c r="AD7" t="n">
-        <v>70979.52745618543</v>
+        <v>96640.26173515205</v>
       </c>
       <c r="AE7" t="n">
-        <v>97117.32086126396</v>
+        <v>132227.4695734272</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.979793215199266e-06</v>
+        <v>7.204627912629407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>87848.58006330486</v>
+        <v>119607.8654597937</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.63972974161248</v>
+        <v>96.3004640205791</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.65239463736832</v>
+        <v>131.7625433495316</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.42802574568962</v>
+        <v>119.1873111421784</v>
       </c>
       <c r="AD8" t="n">
-        <v>70639.72974161248</v>
+        <v>96300.46402057909</v>
       </c>
       <c r="AE8" t="n">
-        <v>96652.39463736831</v>
+        <v>131762.5433495316</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>7.207146858571749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>87428.02574568962</v>
+        <v>119187.3111421784</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>70.66286218438201</v>
+        <v>96.32359646334864</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.68404546609689</v>
+        <v>131.7941941782602</v>
       </c>
       <c r="AC9" t="n">
-        <v>87.45665586374658</v>
+        <v>119.2159412602354</v>
       </c>
       <c r="AD9" t="n">
-        <v>70662.862184382</v>
+        <v>96323.59646334863</v>
       </c>
       <c r="AE9" t="n">
-        <v>96684.0454660969</v>
+        <v>131794.1941782602</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>7.207146858571749e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>87456.65586374658</v>
+        <v>119215.9412602354</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.90356886765601</v>
+        <v>92.10574522123191</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.90865861872456</v>
+        <v>126.023144030335</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.04158663829752</v>
+        <v>113.9956720387065</v>
       </c>
       <c r="AD2" t="n">
-        <v>67903.56886765601</v>
+        <v>92105.74522123192</v>
       </c>
       <c r="AE2" t="n">
-        <v>92908.65861872456</v>
+        <v>126023.144030335</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>7.680112972156845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84041.58663829752</v>
+        <v>113995.6720387065</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.44247636803784</v>
+        <v>81.72990406763431</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.59533034992486</v>
+        <v>111.8264604141845</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.09430233058511</v>
+        <v>101.1538999817064</v>
       </c>
       <c r="AD3" t="n">
-        <v>57442.47636803785</v>
+        <v>81729.90406763431</v>
       </c>
       <c r="AE3" t="n">
-        <v>78595.33034992486</v>
+        <v>111826.4604141845</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707125232023946e-06</v>
+        <v>8.570302151300215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71094.30233058511</v>
+        <v>101153.8999817064</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.58185299014949</v>
+        <v>80.86928068974595</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.4177874762748</v>
+        <v>110.6489175405345</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.02914249610404</v>
+        <v>100.0887401472253</v>
       </c>
       <c r="AD4" t="n">
-        <v>56581.85299014948</v>
+        <v>80869.28068974595</v>
       </c>
       <c r="AE4" t="n">
-        <v>77417.7874762748</v>
+        <v>110648.9175405345</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.872447705462368e-06</v>
+        <v>8.818564366016871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.638020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>70029.14249610405</v>
+        <v>100088.7401472253</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.62978054438503</v>
+        <v>80.91720824398149</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.48336407039432</v>
+        <v>110.714494134654</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.08846055211814</v>
+        <v>100.1480582032394</v>
       </c>
       <c r="AD5" t="n">
-        <v>56629.78054438503</v>
+        <v>80917.2082439815</v>
       </c>
       <c r="AE5" t="n">
-        <v>77483.36407039431</v>
+        <v>110714.494134654</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.869444156291354e-06</v>
+        <v>8.814053982439262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>70088.46055211814</v>
+        <v>100148.0582032394</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.61848417208869</v>
+        <v>79.19306014832966</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.09966375857199</v>
+        <v>108.3554386461387</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.83681865602011</v>
+        <v>98.01414765959208</v>
       </c>
       <c r="AD2" t="n">
-        <v>55618.48417208868</v>
+        <v>79193.06014832966</v>
       </c>
       <c r="AE2" t="n">
-        <v>76099.66375857199</v>
+        <v>108355.4386461387</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.873953526333265e-06</v>
+        <v>9.009157124096001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68836.81865602011</v>
+        <v>98014.14765959208</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.37790111796765</v>
+        <v>77.95247709420862</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.40224329326277</v>
+        <v>106.6580181808294</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.30139761757488</v>
+        <v>96.47872662114685</v>
       </c>
       <c r="AD3" t="n">
-        <v>54377.90111796765</v>
+        <v>77952.47709420862</v>
       </c>
       <c r="AE3" t="n">
-        <v>74402.24329326277</v>
+        <v>106658.0181808294</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.238288292402045e-06</v>
+        <v>9.567954387058576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>67301.39761757488</v>
+        <v>96478.72662114685</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.41608050352998</v>
+        <v>77.99065647977096</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.45448201294477</v>
+        <v>106.7102569005114</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.34865074716794</v>
+        <v>96.52597975073992</v>
       </c>
       <c r="AD4" t="n">
-        <v>54416.08050352999</v>
+        <v>77990.65647977096</v>
       </c>
       <c r="AE4" t="n">
-        <v>74454.48201294476</v>
+        <v>106710.2569005114</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.219993336533661e-06</v>
+        <v>9.539894557974508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>67348.65074716794</v>
+        <v>96525.97975073992</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.92276096875258</v>
+        <v>75.9275412390265</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.41125634485508</v>
+        <v>103.8874116099056</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.50042766915486</v>
+        <v>93.97254285278035</v>
       </c>
       <c r="AD2" t="n">
-        <v>52922.76096875258</v>
+        <v>75927.5412390265</v>
       </c>
       <c r="AE2" t="n">
-        <v>72411.25634485508</v>
+        <v>103887.4116099056</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444362792133084e-06</v>
+        <v>1.006918974529613e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>65500.42766915486</v>
+        <v>93972.54285278035</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.55582859029851</v>
+        <v>75.39001665998022</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.90920327674041</v>
+        <v>103.1519467669441</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.04628984122499</v>
+        <v>93.30726974219944</v>
       </c>
       <c r="AD3" t="n">
-        <v>52555.82859029851</v>
+        <v>75390.01665998022</v>
       </c>
       <c r="AE3" t="n">
-        <v>71909.20327674042</v>
+        <v>103151.9467669441</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.577882081157854e-06</v>
+        <v>1.027781100068055e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>65046.28984122499</v>
+        <v>93307.26974219944</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.21750204161896</v>
+        <v>70.92217831852055</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.34155761626629</v>
+        <v>97.03885324104553</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.91457387185412</v>
+        <v>87.77760128263006</v>
       </c>
       <c r="AD2" t="n">
-        <v>49217.50204161897</v>
+        <v>70922.17831852056</v>
       </c>
       <c r="AE2" t="n">
-        <v>67341.55761626629</v>
+        <v>97038.85324104552</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.975968091120014e-06</v>
+        <v>1.136856870333493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60914.57387185412</v>
+        <v>87777.60128263006</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.61284419482392</v>
+        <v>103.7162858971366</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.6156086461456</v>
+        <v>141.9091980040037</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.39475055783973</v>
+        <v>128.3655833173502</v>
       </c>
       <c r="AD2" t="n">
-        <v>70612.84419482392</v>
+        <v>103716.2858971366</v>
       </c>
       <c r="AE2" t="n">
-        <v>96615.6086461456</v>
+        <v>141909.1980040037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755805765678856e-06</v>
+        <v>7.026136149421287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87394.75055783972</v>
+        <v>128365.5833173502</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.02342939571351</v>
+        <v>93.8297649673562</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.44090119797173</v>
+        <v>128.3820239053643</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.4275941362978</v>
+        <v>116.1294237291725</v>
       </c>
       <c r="AD3" t="n">
-        <v>69023.42939571351</v>
+        <v>93829.7649673562</v>
       </c>
       <c r="AE3" t="n">
-        <v>94440.90119797173</v>
+        <v>128382.0239053643</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156753366040425e-06</v>
+        <v>7.618488437913459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>85427.5941362978</v>
+        <v>116129.4237291725</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.44291979976033</v>
+        <v>84.33450671742358</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.33242530654179</v>
+        <v>115.3901926665836</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.57017278608029</v>
+        <v>104.3775146296672</v>
       </c>
       <c r="AD4" t="n">
-        <v>59442.91979976033</v>
+        <v>84334.50671742357</v>
       </c>
       <c r="AE4" t="n">
-        <v>81332.42530654179</v>
+        <v>115390.1926665836</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.407499486001284e-06</v>
+        <v>7.988935942413812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>73570.17278608029</v>
+        <v>104377.5146296672</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.96539884097562</v>
+        <v>83.85698575863887</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.67906006399498</v>
+        <v>114.7368274240368</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.97916380527808</v>
+        <v>103.786505648865</v>
       </c>
       <c r="AD5" t="n">
-        <v>58965.39884097562</v>
+        <v>83856.98575863887</v>
       </c>
       <c r="AE5" t="n">
-        <v>80679.06006399498</v>
+        <v>114736.8274240368</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.47296182600874e-06</v>
+        <v>8.085648746976054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>72979.16380527808</v>
+        <v>103786.505648865</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.63615198869745</v>
+        <v>83.5277389063607</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.22856999536224</v>
+        <v>114.286337355404</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.57166787652871</v>
+        <v>103.3790097201157</v>
       </c>
       <c r="AD6" t="n">
-        <v>58636.15198869745</v>
+        <v>83527.7389063607</v>
       </c>
       <c r="AE6" t="n">
-        <v>80228.56999536224</v>
+        <v>114286.337355404</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.531358467790494e-06</v>
+        <v>8.171922824607361e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>72571.66787652871</v>
+        <v>103379.0097201157</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.55303171155367</v>
+        <v>118.6689630743798</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6891882041946</v>
+        <v>162.3681105834577</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6479744528116</v>
+        <v>146.8719259944918</v>
       </c>
       <c r="AD2" t="n">
-        <v>84553.03171155367</v>
+        <v>118668.9630743798</v>
       </c>
       <c r="AE2" t="n">
-        <v>115689.1882041946</v>
+        <v>162368.1105834577</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.108417147790272e-06</v>
+        <v>5.966116085299141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104647.9744528116</v>
+        <v>146871.9259944918</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.64344895300324</v>
+        <v>98.31573832969445</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.39397166024459</v>
+        <v>134.5199305668896</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.90795050533096</v>
+        <v>121.6815371935299</v>
       </c>
       <c r="AD3" t="n">
-        <v>72643.44895300324</v>
+        <v>98315.73832969446</v>
       </c>
       <c r="AE3" t="n">
-        <v>99393.97166024458</v>
+        <v>134519.9305668896</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.691073765873096e-06</v>
+        <v>6.812231972830089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89907.95050533095</v>
+        <v>121681.5371935299</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.74204404259909</v>
+        <v>97.2437412186981</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.16062969465221</v>
+        <v>133.0531768264504</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.79231696592801</v>
+        <v>120.3547683714759</v>
       </c>
       <c r="AD4" t="n">
-        <v>71742.0440425991</v>
+        <v>97243.74121869811</v>
       </c>
       <c r="AE4" t="n">
-        <v>98160.62969465222</v>
+        <v>133053.1768264504</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.850118145662478e-06</v>
+        <v>7.043191293270132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>88792.31696592801</v>
+        <v>120354.7683714759</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.95713432517363</v>
+        <v>96.45883150127266</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.0866815914984</v>
+        <v>131.9792287232966</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.82086496244322</v>
+        <v>119.3833163679912</v>
       </c>
       <c r="AD5" t="n">
-        <v>70957.13432517363</v>
+        <v>96458.83150127265</v>
       </c>
       <c r="AE5" t="n">
-        <v>97086.6815914984</v>
+        <v>131979.2287232965</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.981097265712774e-06</v>
+        <v>7.233395113101499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>87820.86496244323</v>
+        <v>119383.3163679912</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.75144912040085</v>
+        <v>96.25314629649986</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.80525402013762</v>
+        <v>131.6978011519358</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.56629644350696</v>
+        <v>119.1287478490549</v>
       </c>
       <c r="AD6" t="n">
-        <v>70751.44912040085</v>
+        <v>96253.14629649986</v>
       </c>
       <c r="AE6" t="n">
-        <v>96805.25402013763</v>
+        <v>131697.8011519358</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.002092831958837e-06</v>
+        <v>7.263884223869613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>87566.29644350696</v>
+        <v>119128.7478490549</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.05015997833652</v>
+        <v>95.55185715443555</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.84571927727229</v>
+        <v>130.7382664090704</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.69833834978493</v>
+        <v>118.2607897553328</v>
       </c>
       <c r="AD7" t="n">
-        <v>70050.15997833652</v>
+        <v>95551.85715443555</v>
       </c>
       <c r="AE7" t="n">
-        <v>95845.71927727229</v>
+        <v>130738.2664090704</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.090345381603303e-06</v>
+        <v>7.392041842013551e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>86698.33834978493</v>
+        <v>118260.7897553328</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.01037326772054</v>
+        <v>95.51207044381955</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.79128134454173</v>
+        <v>130.6838284763399</v>
       </c>
       <c r="AC8" t="n">
-        <v>86.64909589695002</v>
+        <v>118.2115473024979</v>
       </c>
       <c r="AD8" t="n">
-        <v>70010.37326772054</v>
+        <v>95512.07044381955</v>
       </c>
       <c r="AE8" t="n">
-        <v>95791.28134454173</v>
+        <v>130683.8284763399</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.074616499771508e-06</v>
+        <v>7.369200847166931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>86649.09589695002</v>
+        <v>118211.5473024979</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.74164243573201</v>
+        <v>69.08863434651505</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.32222139316222</v>
+        <v>94.53011748829773</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.08796026372626</v>
+        <v>85.50829574909098</v>
       </c>
       <c r="AD2" t="n">
-        <v>47741.64243573201</v>
+        <v>69088.63434651506</v>
       </c>
       <c r="AE2" t="n">
-        <v>65322.22139316222</v>
+        <v>94530.11748829774</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915440261807529e-06</v>
+        <v>1.152762690112874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>59087.96026372626</v>
+        <v>85508.29574909098</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.8978056039694</v>
+        <v>88.64017718539614</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.79604071643418</v>
+        <v>121.2814009536355</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.32147121650496</v>
+        <v>109.7064742661676</v>
       </c>
       <c r="AD2" t="n">
-        <v>64897.80560396941</v>
+        <v>88640.17718539614</v>
       </c>
       <c r="AE2" t="n">
-        <v>88796.04071643417</v>
+        <v>121281.4009536355</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.63339701549052e-06</v>
+        <v>8.573504220663087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80321.47121650496</v>
+        <v>109706.4742661676</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.36523567336765</v>
+        <v>79.19285860081494</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.75315799008678</v>
+        <v>108.3551628799374</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.52338291175514</v>
+        <v>98.01389821212997</v>
       </c>
       <c r="AD3" t="n">
-        <v>55365.23567336765</v>
+        <v>79192.85860081494</v>
       </c>
       <c r="AE3" t="n">
-        <v>75753.15799008678</v>
+        <v>108355.1628799374</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.073522487300183e-06</v>
+        <v>9.243334090598664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>68523.38291175514</v>
+        <v>98013.89821212998</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.11180746575138</v>
+        <v>78.93943039319866</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.40640633596293</v>
+        <v>108.0084112258135</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.20972474883175</v>
+        <v>97.70024004920661</v>
       </c>
       <c r="AD4" t="n">
-        <v>55111.80746575138</v>
+        <v>78939.43039319867</v>
       </c>
       <c r="AE4" t="n">
-        <v>75406.40633596292</v>
+        <v>108008.4112258135</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.136516996800515e-06</v>
+        <v>9.339205851739337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>68209.72474883175</v>
+        <v>97700.24004920661</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.48516807226454</v>
+        <v>92.8985801853372</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.70442830881558</v>
+        <v>127.1079358056333</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.76140918603627</v>
+        <v>114.9769328094856</v>
       </c>
       <c r="AD2" t="n">
-        <v>68485.16807226454</v>
+        <v>92898.5801853372</v>
       </c>
       <c r="AE2" t="n">
-        <v>93704.42830881558</v>
+        <v>127107.9358056333</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.060934270026544e-06</v>
+        <v>7.555522893461773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84761.40918603627</v>
+        <v>114976.9328094856</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.55430683170155</v>
+        <v>91.0485097346826</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.11658584080701</v>
+        <v>124.5765877957011</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.47037133251345</v>
+        <v>112.6871731008512</v>
       </c>
       <c r="AD3" t="n">
-        <v>58554.30683170154</v>
+        <v>91048.50973468259</v>
       </c>
       <c r="AE3" t="n">
-        <v>80116.58584080701</v>
+        <v>124576.5877957011</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.495824702515143e-06</v>
+        <v>8.204775470851575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72470.37133251344</v>
+        <v>112687.1731008512</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.62372729467593</v>
+        <v>82.12239075376914</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.8433258639775</v>
+        <v>112.3634780134445</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.31862950084054</v>
+        <v>101.6396653750021</v>
       </c>
       <c r="AD4" t="n">
-        <v>57623.72729467593</v>
+        <v>82122.39075376914</v>
       </c>
       <c r="AE4" t="n">
-        <v>78843.3258639775</v>
+        <v>112363.4780134445</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.689875188182488e-06</v>
+        <v>8.494475516084391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71318.62950084054</v>
+        <v>101639.6653750021</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.36223274546717</v>
+        <v>81.86089620456039</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.48553748542493</v>
+        <v>112.0056896348919</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.99498794297777</v>
+        <v>101.3160238171393</v>
       </c>
       <c r="AD5" t="n">
-        <v>57362.23274546717</v>
+        <v>81860.89620456038</v>
       </c>
       <c r="AE5" t="n">
-        <v>78485.53748542492</v>
+        <v>112005.6896348919</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.740739860469158e-06</v>
+        <v>8.570411929289052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>70994.98794297778</v>
+        <v>101316.0238171393</v>
       </c>
     </row>
   </sheetData>
